--- a/output/Invaders.xlsx
+++ b/output/Invaders.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Luke/Desktop/AnalysisUKMarinaData/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6F321C-BA97-FE44-9AEB-FA9D06DE982B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="35380" yWindow="580" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invaders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="296">
   <si>
     <t>ID</t>
   </si>
@@ -56,18 +52,24 @@
     <t>IDonly</t>
   </si>
   <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Acanthochitona crinita</t>
+  </si>
+  <si>
+    <t>Acanthoeca spectabilis</t>
+  </si>
+  <si>
+    <t>18S</t>
+  </si>
+  <si>
     <t>Both</t>
   </si>
   <si>
-    <t>Acanthochitona crinita</t>
-  </si>
-  <si>
-    <t>COI</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Acartia bifilosa</t>
   </si>
   <si>
@@ -83,48 +85,69 @@
     <t>UK</t>
   </si>
   <si>
+    <t>Acineta tuberosa</t>
+  </si>
+  <si>
     <t>Acrocnida brachiata</t>
   </si>
   <si>
-    <t>Aiptasiogeton hyalinus</t>
-  </si>
-  <si>
-    <t>18S</t>
+    <t>Acrorhynchides robustus</t>
+  </si>
+  <si>
+    <t>Sediment</t>
   </si>
   <si>
     <t>Akera bullata</t>
   </si>
   <si>
-    <t>Alaskagorgia aleutiana</t>
-  </si>
-  <si>
-    <t>Alcyonium siderium</t>
+    <t>Alcyonium sidereum</t>
   </si>
   <si>
     <t>Alitta virens</t>
   </si>
   <si>
+    <t>Amathia gracilis</t>
+  </si>
+  <si>
+    <t>Amathia imbricata</t>
+  </si>
+  <si>
+    <t>Ameira scotti</t>
+  </si>
+  <si>
     <t>Ammothea hilgendorfi</t>
   </si>
   <si>
     <t>Amphichaeta sannio</t>
   </si>
   <si>
-    <t>Sediment</t>
-  </si>
-  <si>
     <t>Amphitrite figulus</t>
   </si>
   <si>
+    <t>Ancora sagittata</t>
+  </si>
+  <si>
+    <t>Anoplostoma rectospiculum</t>
+  </si>
+  <si>
     <t>Antedon bifida</t>
   </si>
   <si>
-    <t>Antedon petasus</t>
-  </si>
-  <si>
     <t>Anteholosticha pulchra</t>
   </si>
   <si>
+    <t>Anteholosticha scutellum</t>
+  </si>
+  <si>
+    <t>Apatococcus lobatus</t>
+  </si>
+  <si>
+    <t>Apokeronopsis crassa</t>
+  </si>
+  <si>
+    <t>Archaeperidinium saanichii</t>
+  </si>
+  <si>
     <t>Archaphanostoma macrospiriferum</t>
   </si>
   <si>
@@ -149,6 +172,12 @@
     <t>Aurelia aurita</t>
   </si>
   <si>
+    <t>Austrominius modestus</t>
+  </si>
+  <si>
+    <t>Balanus balanus</t>
+  </si>
+  <si>
     <t>Barentsia benedeni</t>
   </si>
   <si>
@@ -167,10 +196,7 @@
     <t>Botryllus schlosseri</t>
   </si>
   <si>
-    <t>Bowerbankia gracilis</t>
-  </si>
-  <si>
-    <t>Bowerbankia imbricata</t>
+    <t>Bougainvillia muscus</t>
   </si>
   <si>
     <t>Bryopsis plumosa</t>
@@ -179,27 +205,27 @@
     <t>Buccinum undatum</t>
   </si>
   <si>
-    <t>Bugula fulva</t>
-  </si>
-  <si>
     <t>Bugula neritina</t>
   </si>
   <si>
-    <t>Bugula plumosa</t>
-  </si>
-  <si>
-    <t>Caberea boryi</t>
+    <t>Bunodosoma grandis</t>
   </si>
   <si>
     <t>Calanus helgolandicus</t>
   </si>
   <si>
-    <t>Calappa gallus</t>
+    <t>Calliacantha natans</t>
   </si>
   <si>
     <t>Canuella perplexa</t>
   </si>
   <si>
+    <t>Capitella capitata</t>
+  </si>
+  <si>
+    <t>Capitella teleta</t>
+  </si>
+  <si>
     <t>Carcinus maenas</t>
   </si>
   <si>
@@ -212,9 +238,6 @@
     <t>Centropages hamatus</t>
   </si>
   <si>
-    <t>Cephalodella forficula</t>
-  </si>
-  <si>
     <t>Cephalothrix rufifrons</t>
   </si>
   <si>
@@ -224,6 +247,9 @@
     <t>Ceramium diaphanum</t>
   </si>
   <si>
+    <t>Ceramium rubrum</t>
+  </si>
+  <si>
     <t>Cerastoderma edule</t>
   </si>
   <si>
@@ -233,31 +259,40 @@
     <t>Chaetogaster diastrophus</t>
   </si>
   <si>
-    <t>Chamaesipho columna</t>
-  </si>
-  <si>
-    <t>Chelon labrosus</t>
-  </si>
-  <si>
     <t>Chironomus salinarius</t>
   </si>
   <si>
+    <t>Chlorella sphaerica</t>
+  </si>
+  <si>
+    <t>Chromadora nudicapitata</t>
+  </si>
+  <si>
     <t>Chromadorina germanica</t>
   </si>
   <si>
-    <t>Chromadorita leuckarti</t>
-  </si>
-  <si>
     <t>Chromadorita tentabundum</t>
   </si>
   <si>
+    <t>Chromadoropsis vivipara</t>
+  </si>
+  <si>
+    <t>Chrysochromulina throndsenii</t>
+  </si>
+  <si>
+    <t>Chylocladia verticillata</t>
+  </si>
+  <si>
+    <t>Chytridium polysiphoniae</t>
+  </si>
+  <si>
     <t>Ciona intestinalis</t>
   </si>
   <si>
     <t>Cirriformia tentaculata</t>
   </si>
   <si>
-    <t>Cladophora gracilis</t>
+    <t>Cladophora pellucida</t>
   </si>
   <si>
     <t>Clytia hemisphaerica</t>
@@ -266,54 +301,84 @@
     <t>Clytia languida</t>
   </si>
   <si>
-    <t>Clytia paulensis</t>
-  </si>
-  <si>
     <t>Corbula gibba</t>
   </si>
   <si>
-    <t>Corymorpha bigelowi</t>
-  </si>
-  <si>
     <t>Crepidula fornicata</t>
   </si>
   <si>
+    <t>Crinolina isefiordensis</t>
+  </si>
+  <si>
+    <t>Crisularia plumosa</t>
+  </si>
+  <si>
+    <t>Cryptosula pallasiana</t>
+  </si>
+  <si>
     <t>Ctenodrilus serratus</t>
   </si>
   <si>
+    <t>Cyartonema elegans</t>
+  </si>
+  <si>
+    <t>Cyclidium glaucoma</t>
+  </si>
+  <si>
     <t>Cygnus olor</t>
   </si>
   <si>
     <t>Daptonema oxycerca</t>
   </si>
   <si>
-    <t>Daptonema setosum</t>
-  </si>
-  <si>
     <t>Dendrodoa grossularia</t>
   </si>
   <si>
+    <t>Desmolaimus zeelandicus</t>
+  </si>
+  <si>
+    <t>Diadumene lineata</t>
+  </si>
+  <si>
     <t>Dicentrarchus labrax</t>
   </si>
   <si>
+    <t>Diophrys scutum</t>
+  </si>
+  <si>
     <t>Doto coronata</t>
   </si>
   <si>
+    <t>Dysteria pectinata</t>
+  </si>
+  <si>
     <t>Echiniscus testudo</t>
   </si>
   <si>
     <t>Electra pilosa</t>
   </si>
   <si>
+    <t>Emplectonema gracile</t>
+  </si>
+  <si>
+    <t>Enhydrosoma gariene</t>
+  </si>
+  <si>
+    <t>Ephelota gemmipara</t>
+  </si>
+  <si>
     <t>Ercolania felina</t>
   </si>
   <si>
-    <t>Erinaceusyllis bidentata</t>
-  </si>
-  <si>
     <t>Eteone longa</t>
   </si>
   <si>
+    <t>Euastacus bidawalus</t>
+  </si>
+  <si>
+    <t>Euchlanis dilatata</t>
+  </si>
+  <si>
     <t>Eumida sanguinea</t>
   </si>
   <si>
@@ -323,7 +388,7 @@
     <t>Euterpina acutifrons</t>
   </si>
   <si>
-    <t>Gephyrocapsa oceanica</t>
+    <t>Ficopomatus enigmaticus</t>
   </si>
   <si>
     <t>Gibbula cineraria</t>
@@ -338,12 +403,21 @@
     <t>Gonothyraea loveni</t>
   </si>
   <si>
+    <t>Gyrodinium rubrum</t>
+  </si>
+  <si>
+    <t>Gyrodinium spirale</t>
+  </si>
+  <si>
     <t>Halichondria bowerbanki</t>
   </si>
   <si>
     <t>Halichondria panicea</t>
   </si>
   <si>
+    <t>Haliclona (Reniera) fascigera</t>
+  </si>
+  <si>
     <t>Haliclona oculata</t>
   </si>
   <si>
@@ -353,10 +427,25 @@
     <t>Halocladius variabilis</t>
   </si>
   <si>
+    <t>Halomonhystera disjuncta</t>
+  </si>
+  <si>
+    <t>Harmothoe impar</t>
+  </si>
+  <si>
     <t>Hediste diversicolor</t>
   </si>
   <si>
-    <t>Heterolepidoderma loricatum</t>
+    <t>Hemiselmis cryptochromatica</t>
+  </si>
+  <si>
+    <t>Heterochlorella luteoviridis</t>
+  </si>
+  <si>
+    <t>Holosticha bradburyae</t>
+  </si>
+  <si>
+    <t>Holosticha heterofoissneri</t>
   </si>
   <si>
     <t>Hydra oligactis</t>
@@ -365,19 +454,28 @@
     <t>Hydroides ezoensis</t>
   </si>
   <si>
-    <t>Hymeniacidon perlevis</t>
+    <t>Hypereteone heteropoda</t>
+  </si>
+  <si>
+    <t>Hypocoma acinetarum</t>
   </si>
   <si>
     <t>Isias clavipes</t>
   </si>
   <si>
-    <t>Itunella muelleri</t>
+    <t>Islandinium tricingulatum</t>
+  </si>
+  <si>
+    <t>Kirchenpaueria similis</t>
+  </si>
+  <si>
+    <t>Laboea strobila</t>
   </si>
   <si>
     <t>Laomedea flexuosa</t>
   </si>
   <si>
-    <t>Larus heuglini</t>
+    <t>Laonice cirrata</t>
   </si>
   <si>
     <t>Lepidochitona cinerea</t>
@@ -398,19 +496,19 @@
     <t>Limapontia depressa</t>
   </si>
   <si>
+    <t>Limecola balthica</t>
+  </si>
+  <si>
     <t>Liocarcinus depurator</t>
   </si>
   <si>
+    <t>Lissoclinum perforatum</t>
+  </si>
+  <si>
     <t>Littorina littorea</t>
   </si>
   <si>
-    <t>Loxocorniculum mutsuense</t>
-  </si>
-  <si>
-    <t>Macoma balthica</t>
-  </si>
-  <si>
-    <t>Melinna albicincta</t>
+    <t>Mataza hastifera</t>
   </si>
   <si>
     <t>Membranipora membranacea</t>
@@ -419,18 +517,21 @@
     <t>Mesopodopsis slabberi</t>
   </si>
   <si>
+    <t>Metachromadora remanei</t>
+  </si>
+  <si>
     <t>Miamiensis avidus</t>
   </si>
   <si>
+    <t>Microglena monadina</t>
+  </si>
+  <si>
     <t>Microstomum papillosum</t>
   </si>
   <si>
     <t>Molgula manhattensis</t>
   </si>
   <si>
-    <t>Molgula provisionalis</t>
-  </si>
-  <si>
     <t>Monocorophium acherusicum</t>
   </si>
   <si>
@@ -440,12 +541,12 @@
     <t>Musculista senhousia</t>
   </si>
   <si>
-    <t>Mya truncata</t>
-  </si>
-  <si>
     <t>Myrianida prolifera</t>
   </si>
   <si>
+    <t>Myrmecia astigmatica</t>
+  </si>
+  <si>
     <t>Mytilicola intestinalis</t>
   </si>
   <si>
@@ -464,18 +565,12 @@
     <t>Necora puber</t>
   </si>
   <si>
-    <t>Neoceratium minutum</t>
-  </si>
-  <si>
     <t>Nephtys cirrosa</t>
   </si>
   <si>
     <t>Nephtys hombergii</t>
   </si>
   <si>
-    <t>Nephtys paradoxa</t>
-  </si>
-  <si>
     <t>Nucula nitidosa</t>
   </si>
   <si>
@@ -485,7 +580,10 @@
     <t>Obelia longissima</t>
   </si>
   <si>
-    <t>Oikopleura dioica</t>
+    <t>Oikopleura (Vexillaria) dioica</t>
+  </si>
+  <si>
+    <t>Omegastrombidium elegans</t>
   </si>
   <si>
     <t>Oncorhynchus mykiss</t>
@@ -494,63 +592,75 @@
     <t>Opercularella lacerata</t>
   </si>
   <si>
-    <t>Ophryotrocha hartmanni</t>
-  </si>
-  <si>
-    <t>Ophryotrocha puerilis</t>
-  </si>
-  <si>
-    <t>Osilinus lineatus</t>
-  </si>
-  <si>
     <t>Ostrea edulis</t>
   </si>
   <si>
+    <t>Oxyrrhis marina</t>
+  </si>
+  <si>
+    <t>Parabirojimia similis</t>
+  </si>
+  <si>
     <t>Paracalanus parvus</t>
   </si>
   <si>
-    <t>Paracineta limbata</t>
+    <t>Paradiscocephalus elongatus</t>
+  </si>
+  <si>
+    <t>Parallelostrombidium conicum</t>
   </si>
   <si>
     <t>Paramecynostomum diversicolor</t>
   </si>
   <si>
-    <t>Paramphiascella fulvofasciata</t>
-  </si>
-  <si>
     <t>Paranais frici</t>
   </si>
   <si>
     <t>Paranais litoralis</t>
   </si>
   <si>
+    <t>Paranophrys marina</t>
+  </si>
+  <si>
     <t>Parastrombidinopsis shimi</t>
   </si>
   <si>
+    <t>Parauronema longum</t>
+  </si>
+  <si>
+    <t>Parvicardium exiguum</t>
+  </si>
+  <si>
     <t>Patella vulgata</t>
   </si>
   <si>
     <t>Pectinaria koreni</t>
   </si>
   <si>
-    <t>Peniculistoma mytili</t>
+    <t>Pelagostrobilidium neptuni</t>
   </si>
   <si>
     <t>Peringia ulvae</t>
   </si>
   <si>
+    <t>Peritromus kahli</t>
+  </si>
+  <si>
+    <t>Phaeocystis cordata</t>
+  </si>
+  <si>
     <t>Phaeocystis globosa</t>
   </si>
   <si>
-    <t>Phallusia ingeria</t>
-  </si>
-  <si>
     <t>Phallusia mammillata</t>
   </si>
   <si>
     <t>Philactinoposthia saliens</t>
   </si>
   <si>
+    <t>Phorcus lineatus</t>
+  </si>
+  <si>
     <t>Phyllodoce groenlandica</t>
   </si>
   <si>
@@ -563,10 +673,10 @@
     <t>Platynereis dumerilii</t>
   </si>
   <si>
-    <t>Pleurobrachia pileus</t>
-  </si>
-  <si>
-    <t>Polycarpa pomaria</t>
+    <t>Plaxiphora albida</t>
+  </si>
+  <si>
+    <t>Polykrikos kofoidii</t>
   </si>
   <si>
     <t>Polysiphonia polyspora</t>
@@ -575,63 +685,75 @@
     <t>Potamopyrgus antipodarum</t>
   </si>
   <si>
+    <t>Prodiscocephalus borrori</t>
+  </si>
+  <si>
+    <t>Progyrator mamertinus</t>
+  </si>
+  <si>
     <t>Promesostoma meixneri</t>
   </si>
   <si>
-    <t>Prosphaerosyllis magnoculata</t>
-  </si>
-  <si>
     <t>Protohydra leuckarti</t>
   </si>
   <si>
     <t>Protomonotresis centrophora</t>
   </si>
   <si>
-    <t>Proxenetes puccinellicola</t>
+    <t>Protoperidinium bipes</t>
+  </si>
+  <si>
+    <t>Protosuberites denhartogi</t>
   </si>
   <si>
     <t>Psamathe fusca</t>
   </si>
   <si>
+    <t>Pseudobradya attenuata</t>
+  </si>
+  <si>
     <t>Pseudocalanus elongatus</t>
   </si>
   <si>
     <t>Pseudocalanus moultoni</t>
   </si>
   <si>
-    <t>Pseudolatirus pallidus</t>
+    <t>Pseudolabrus sieboldi</t>
   </si>
   <si>
     <t>Pseudopirsonia mucosa</t>
   </si>
   <si>
+    <t>Pseudopolydora paucibranchiata</t>
+  </si>
+  <si>
     <t>Pseudothrix groenlandica</t>
   </si>
   <si>
-    <t>Pterosperma cristatum</t>
-  </si>
-  <si>
-    <t>Pycnophyes dentatus</t>
-  </si>
-  <si>
     <t>Pycnophyes kielensis</t>
   </si>
   <si>
     <t>Pygospio elegans</t>
   </si>
   <si>
+    <t>Ramphogordius lacteus</t>
+  </si>
+  <si>
+    <t>Rhizoclonium riparium</t>
+  </si>
+  <si>
     <t>Rhodomonas abbreviata</t>
   </si>
   <si>
     <t>Ruditapes philippinarum</t>
   </si>
   <si>
-    <t>Ruditapes variegatus</t>
-  </si>
-  <si>
     <t>Sabatieria pulchra</t>
   </si>
   <si>
+    <t>Sabatieria punctata</t>
+  </si>
+  <si>
     <t>Sabella pavonina</t>
   </si>
   <si>
@@ -644,15 +766,21 @@
     <t>Sabelliphilus elongatus</t>
   </si>
   <si>
-    <t>Saccharomyces cerevisiae W303</t>
+    <t>Saccoglossus bromophenolosus</t>
   </si>
   <si>
     <t>Sagartia ornata</t>
   </si>
   <si>
+    <t>Salvatoria clavata</t>
+  </si>
+  <si>
     <t>Sarsia tubulosa</t>
   </si>
   <si>
+    <t>Savillea micropora</t>
+  </si>
+  <si>
     <t>Scomber scombrus</t>
   </si>
   <si>
@@ -668,30 +796,51 @@
     <t>Sphaerolaimus hirsutus</t>
   </si>
   <si>
+    <t>Sphaerosyllis glandulata</t>
+  </si>
+  <si>
     <t>Spiophanes bombyx</t>
   </si>
   <si>
     <t>Spirinia parasitifera</t>
   </si>
   <si>
+    <t>Stenosemella pacifica</t>
+  </si>
+  <si>
     <t>Sthenelais boa</t>
   </si>
   <si>
     <t>Streblospio benedicti</t>
   </si>
   <si>
+    <t>Strombidinopsis jeokjo</t>
+  </si>
+  <si>
+    <t>Strombidium biarmatum</t>
+  </si>
+  <si>
     <t>Strombidium capitatum</t>
   </si>
   <si>
     <t>Strombidium conicum</t>
   </si>
   <si>
-    <t>Strombidium hausmanni</t>
+    <t>Strombidium paracalkinsi</t>
   </si>
   <si>
     <t>Styela clava</t>
   </si>
   <si>
+    <t>Syringolaimus striatocaudatus</t>
+  </si>
+  <si>
+    <t>Tachidius discipes</t>
+  </si>
+  <si>
+    <t>Teleaulax acuta</t>
+  </si>
+  <si>
     <t>Teleaulax amphioxeia</t>
   </si>
   <si>
@@ -704,6 +853,12 @@
     <t>Terschellingia longicaudata</t>
   </si>
   <si>
+    <t>Tetraselmis marina</t>
+  </si>
+  <si>
+    <t>Tetraselmis subcordiformis</t>
+  </si>
+  <si>
     <t>Theristus acer</t>
   </si>
   <si>
@@ -713,9 +868,6 @@
     <t>Tintinnopsis radix</t>
   </si>
   <si>
-    <t>Tintinnopsis ventricosoides</t>
-  </si>
-  <si>
     <t>Trichobranchus glacialis</t>
   </si>
   <si>
@@ -725,15 +877,24 @@
     <t>Tubificoides brownae</t>
   </si>
   <si>
-    <t>Typhlamphiascus typhlops</t>
-  </si>
-  <si>
-    <t>Uncinorhynchus flavidus</t>
+    <t>Ulvella leptochaete</t>
+  </si>
+  <si>
+    <t>Urospora wormskioldii</t>
+  </si>
+  <si>
+    <t>Viscosia viscosa</t>
+  </si>
+  <si>
+    <t>Vorticella campanula</t>
   </si>
   <si>
     <t>Watersipora subtorquata</t>
   </si>
   <si>
+    <t>Woloszynskia halophila</t>
+  </si>
+  <si>
     <t>Xenocicerina gracilis</t>
   </si>
   <si>
@@ -743,14 +904,17 @@
     <t>Zonorhynchus tvaerminnensis</t>
   </si>
   <si>
-    <t>Zygonemella striata</t>
+    <t>Zoothamnium alternans</t>
+  </si>
+  <si>
+    <t>Zostera marina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -758,16 +922,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -775,21 +1239,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -812,7 +1468,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -824,7 +1480,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -841,9 +1497,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -871,14 +1527,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -906,6 +1579,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,12 +1747,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I225"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -1101,13 +1796,13 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1116,7 +1811,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1124,28 +1819,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1153,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1162,19 +1857,19 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1182,13 +1877,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1197,13 +1892,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1211,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1226,13 +1921,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1240,13 +1935,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1261,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1272,25 +1967,25 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1298,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1313,13 +2008,13 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1339,16 +2034,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1368,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1385,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1397,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1414,28 +2109,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1443,28 +2138,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1472,28 +2167,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1507,22 +2202,22 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1536,22 +2231,22 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1562,25 +2257,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1606,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1626,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1635,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1649,10 +2344,10 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1661,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1675,28 +2370,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1704,13 +2399,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1733,16 +2428,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1751,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1762,16 +2457,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1780,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1791,7 +2486,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
@@ -1806,13 +2501,13 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1820,28 +2515,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1849,28 +2544,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1878,7 +2573,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>9</v>
@@ -1887,19 +2582,19 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1907,11 +2602,11 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
       <c r="D30">
         <v>0</v>
       </c>
@@ -1919,16 +2614,16 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1939,7 +2634,7 @@
         <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1948,16 +2643,16 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1968,25 +2663,25 @@
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1997,7 +2692,7 @@
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2012,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2029,22 +2724,22 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2067,13 +2762,13 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2084,7 +2779,7 @@
         <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2093,16 +2788,16 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2113,13 +2808,13 @@
         <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2128,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2142,25 +2837,25 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2186,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2206,19 +2901,19 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2235,19 +2930,19 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,7 +2953,7 @@
         <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2267,16 +2962,16 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2287,25 +2982,25 @@
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2316,7 +3011,7 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2331,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2351,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2360,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2380,19 +3075,19 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2403,7 +3098,7 @@
         <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2415,13 +3110,13 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2438,19 +3133,19 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2467,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2476,10 +3171,10 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2490,7 +3185,7 @@
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2499,16 +3194,16 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2528,16 +3223,16 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2563,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2583,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2592,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2606,25 +3301,25 @@
         <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2638,22 +3333,22 @@
         <v>9</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,25 +3359,25 @@
         <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2696,22 +3391,22 @@
         <v>9</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2725,22 +3420,22 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2751,25 +3446,25 @@
         <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2789,16 +3484,16 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2809,7 +3504,7 @@
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2824,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2841,22 +3536,22 @@
         <v>9</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2873,19 +3568,19 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2908,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2928,22 +3623,22 @@
         <v>9</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -2957,22 +3652,22 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -2983,25 +3678,25 @@
         <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3012,10 +3707,10 @@
         <v>82</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3027,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3041,13 +3736,13 @@
         <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3056,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3076,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3085,10 +3780,10 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3102,7 +3797,7 @@
         <v>9</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3111,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3131,22 +3826,22 @@
         <v>9</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3163,19 +3858,19 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3186,25 +3881,25 @@
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I74" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3215,10 +3910,10 @@
         <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3227,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3250,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3285,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3317,10 +4012,10 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3331,25 +4026,25 @@
         <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3360,7 +4055,7 @@
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3372,13 +4067,13 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3398,16 +4093,16 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3424,19 +4119,19 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3447,7 +4142,7 @@
         <v>97</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3456,16 +4151,16 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3476,13 +4171,13 @@
         <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3491,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3514,16 +4209,16 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3534,25 +4229,25 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3569,19 +4264,19 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3595,22 +4290,22 @@
         <v>9</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3630,16 +4325,16 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3650,13 +4345,13 @@
         <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3665,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3679,25 +4374,25 @@
         <v>105</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3708,25 +4403,25 @@
         <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -3743,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3752,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3769,22 +4464,22 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3798,7 +4493,7 @@
         <v>9</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3810,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -3827,22 +4522,22 @@
         <v>9</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I96" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3865,27 +4560,27 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>112</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3897,15 +4592,15 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>113</v>
@@ -3914,10 +4609,10 @@
         <v>9</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3926,15 +4621,15 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I99" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>114</v>
@@ -3946,24 +4641,24 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>115</v>
@@ -3975,24 +4670,24 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>116</v>
@@ -4001,7 +4696,7 @@
         <v>9</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4013,15 +4708,15 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>117</v>
@@ -4036,21 +4731,21 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>118</v>
@@ -4059,27 +4754,27 @@
         <v>9</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="s">
         <v>10</v>
       </c>
       <c r="I104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>119</v>
@@ -4088,7 +4783,7 @@
         <v>9</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4100,15 +4795,15 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I105" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>120</v>
@@ -4120,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4129,21 +4824,21 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
         <v>121</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4152,79 +4847,79 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
         <v>122</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I108" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
         <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I109" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
         <v>124</v>
@@ -4248,41 +4943,41 @@
         <v>10</v>
       </c>
       <c r="I110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
         <v>125</v>
       </c>
       <c r="C111" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I111" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
         <v>126</v>
@@ -4291,7 +4986,7 @@
         <v>9</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -4300,18 +4995,18 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>127</v>
@@ -4320,10 +5015,10 @@
         <v>9</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -4332,10 +5027,10 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -4349,22 +5044,22 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -4375,25 +5070,25 @@
         <v>129</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -4410,19 +5105,19 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I116" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4439,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4448,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4465,22 +5160,22 @@
         <v>9</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I118" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -4491,25 +5186,25 @@
         <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119">
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I119" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4529,16 +5224,16 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I120" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -4549,25 +5244,25 @@
         <v>135</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -4578,25 +5273,25 @@
         <v>136</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -4607,25 +5302,25 @@
         <v>137</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -4645,16 +5340,16 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -4668,22 +5363,22 @@
         <v>9</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I125" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -4694,7 +5389,7 @@
         <v>140</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -4709,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -4723,25 +5418,25 @@
         <v>141</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -4752,10 +5447,10 @@
         <v>142</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -4767,10 +5462,10 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -4781,10 +5476,10 @@
         <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -4793,13 +5488,13 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -4810,13 +5505,13 @@
         <v>144</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -4825,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I130" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -4839,7 +5534,7 @@
         <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -4848,16 +5543,16 @@
         <v>1</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -4874,19 +5569,19 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -4903,19 +5598,19 @@
         <v>1</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I133" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -4929,22 +5624,22 @@
         <v>9</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -4958,22 +5653,22 @@
         <v>9</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -4993,16 +5688,16 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -5013,13 +5708,13 @@
         <v>151</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -5028,10 +5723,10 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -5042,13 +5737,13 @@
         <v>152</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -5057,10 +5752,10 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -5074,22 +5769,22 @@
         <v>9</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I139" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5100,25 +5795,25 @@
         <v>154</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I140" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5132,22 +5827,22 @@
         <v>9</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I141" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5170,13 +5865,13 @@
         <v>1</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I142" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -5202,10 +5897,10 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I143" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5219,22 +5914,22 @@
         <v>9</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I144" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -5245,25 +5940,25 @@
         <v>159</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -5274,13 +5969,13 @@
         <v>160</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D146">
         <v>0</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -5289,10 +5984,10 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -5303,13 +5998,13 @@
         <v>161</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -5318,15 +6013,15 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I147" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B148" t="s">
         <v>162</v>
@@ -5338,65 +6033,65 @@
         <v>1</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
         <v>1</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I148" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
         <v>163</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
         <v>164</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5405,15 +6100,15 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I150" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
         <v>165</v>
@@ -5425,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -5434,15 +6129,15 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I151" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B152" t="s">
         <v>166</v>
@@ -5454,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -5463,15 +6158,15 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I152" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s">
         <v>167</v>
@@ -5492,15 +6187,15 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
         <v>168</v>
@@ -5509,143 +6204,143 @@
         <v>9</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I154" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
         <v>169</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I155" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
         <v>170</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="s">
         <v>10</v>
       </c>
       <c r="I156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B157" t="s">
         <v>171</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D157">
         <v>1</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I157" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
         <v>172</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I158" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B159" t="s">
         <v>173</v>
@@ -5657,24 +6352,24 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>1</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
         <v>174</v>
@@ -5695,21 +6390,21 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I160" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
         <v>175</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -5718,27 +6413,27 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161" t="s">
         <v>10</v>
       </c>
       <c r="I161" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B162" t="s">
         <v>176</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -5747,50 +6442,50 @@
         <v>1</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162">
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B163" t="s">
         <v>177</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D163">
         <v>1</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I163" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B164" t="s">
         <v>178</v>
@@ -5799,10 +6494,10 @@
         <v>9</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -5811,24 +6506,24 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I164" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B165" t="s">
         <v>179</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -5837,24 +6532,24 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
         <v>180</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5863,21 +6558,21 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I166" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B167" t="s">
         <v>181</v>
@@ -5886,56 +6581,56 @@
         <v>9</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I167" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B168" t="s">
         <v>182</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I168" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B169" t="s">
         <v>183</v>
@@ -5944,33 +6639,33 @@
         <v>9</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I169" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B170" t="s">
         <v>184</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -5979,50 +6674,50 @@
         <v>1</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I170" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B171" t="s">
         <v>185</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D171">
         <v>1</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
         <v>1</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B172" t="s">
         <v>186</v>
@@ -6031,27 +6726,27 @@
         <v>9</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I172" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B173" t="s">
         <v>187</v>
@@ -6063,30 +6758,30 @@
         <v>1</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I173" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B174" t="s">
         <v>188</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -6098,76 +6793,76 @@
         <v>0</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
         <v>189</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I175" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B176" t="s">
         <v>190</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B177" t="s">
         <v>191</v>
@@ -6176,10 +6871,10 @@
         <v>9</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -6188,15 +6883,15 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B178" t="s">
         <v>192</v>
@@ -6205,10 +6900,10 @@
         <v>9</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
         <v>0</v>
@@ -6217,15 +6912,15 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I178" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
         <v>193</v>
@@ -6234,33 +6929,33 @@
         <v>9</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
         <v>194</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -6269,21 +6964,21 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I180" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s">
         <v>195</v>
@@ -6292,27 +6987,27 @@
         <v>9</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I181" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B182" t="s">
         <v>196</v>
@@ -6324,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -6333,30 +7028,30 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I182" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B183" t="s">
         <v>197</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -6365,12 +7060,12 @@
         <v>10</v>
       </c>
       <c r="I183" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B184" t="s">
         <v>198</v>
@@ -6382,36 +7077,36 @@
         <v>1</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
         <v>1</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I184" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B185" t="s">
         <v>199</v>
       </c>
       <c r="C185" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -6420,15 +7115,15 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B186" t="s">
         <v>200</v>
@@ -6437,27 +7132,27 @@
         <v>9</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I186" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B187" t="s">
         <v>201</v>
@@ -6469,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -6478,15 +7173,15 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I187" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B188" t="s">
         <v>202</v>
@@ -6507,15 +7202,15 @@
         <v>1</v>
       </c>
       <c r="H188" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I188" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B189" t="s">
         <v>203</v>
@@ -6524,27 +7219,27 @@
         <v>9</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B190" t="s">
         <v>204</v>
@@ -6565,15 +7260,15 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B191" t="s">
         <v>205</v>
@@ -6582,7 +7277,7 @@
         <v>9</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -6591,18 +7286,18 @@
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I191" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B192" t="s">
         <v>206</v>
@@ -6620,27 +7315,27 @@
         <v>1</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B193" t="s">
         <v>207</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -6652,15 +7347,15 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I193" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B194" t="s">
         <v>208</v>
@@ -6669,27 +7364,27 @@
         <v>9</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B195" t="s">
         <v>209</v>
@@ -6698,27 +7393,27 @@
         <v>9</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195">
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B196" t="s">
         <v>210</v>
@@ -6730,24 +7425,24 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
         <v>1</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I196" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B197" t="s">
         <v>211</v>
@@ -6756,27 +7451,27 @@
         <v>9</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I197" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B198" t="s">
         <v>212</v>
@@ -6788,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -6797,15 +7492,15 @@
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B199" t="s">
         <v>213</v>
@@ -6814,27 +7509,27 @@
         <v>9</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
         <v>1</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I199" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s">
         <v>214</v>
@@ -6843,27 +7538,27 @@
         <v>9</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200">
         <v>1</v>
       </c>
       <c r="H200" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I200" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B201" t="s">
         <v>215</v>
@@ -6872,10 +7567,10 @@
         <v>9</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -6884,15 +7579,15 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I201" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
         <v>216</v>
@@ -6913,44 +7608,44 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B203" t="s">
         <v>217</v>
       </c>
       <c r="C203" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s">
         <v>218</v>
@@ -6962,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -6971,15 +7666,15 @@
         <v>1</v>
       </c>
       <c r="H204" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I204" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
         <v>219</v>
@@ -6994,27 +7689,27 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205">
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I205" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
         <v>220</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7023,50 +7718,50 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B207" t="s">
         <v>221</v>
       </c>
       <c r="C207" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I207" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B208" t="s">
         <v>222</v>
@@ -7078,24 +7773,24 @@
         <v>1</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I208" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B209" t="s">
         <v>223</v>
@@ -7107,24 +7802,24 @@
         <v>1</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
         <v>1</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I209" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B210" t="s">
         <v>224</v>
@@ -7142,18 +7837,18 @@
         <v>1</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I210" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B211" t="s">
         <v>225</v>
@@ -7174,15 +7869,15 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I211" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s">
         <v>226</v>
@@ -7194,24 +7889,24 @@
         <v>1</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I212" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B213" t="s">
         <v>227</v>
@@ -7220,7 +7915,7 @@
         <v>9</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -7229,18 +7924,18 @@
         <v>1</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I213" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s">
         <v>228</v>
@@ -7255,21 +7950,21 @@
         <v>1</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I214" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B215" t="s">
         <v>229</v>
@@ -7281,53 +7976,53 @@
         <v>1</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
         <v>1</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I215" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B216" t="s">
         <v>230</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B217" t="s">
         <v>231</v>
@@ -7339,24 +8034,24 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B218" t="s">
         <v>232</v>
@@ -7377,15 +8072,15 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I218" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
         <v>233</v>
@@ -7394,85 +8089,85 @@
         <v>9</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I219" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B220" t="s">
         <v>234</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G220">
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I220" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B221" t="s">
         <v>235</v>
       </c>
       <c r="C221" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221">
         <v>1</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I221" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B222" t="s">
         <v>236</v>
@@ -7481,27 +8176,27 @@
         <v>9</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I222" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B223" t="s">
         <v>237</v>
@@ -7510,10 +8205,10 @@
         <v>9</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -7522,15 +8217,15 @@
         <v>0</v>
       </c>
       <c r="H223" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I223" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B224" t="s">
         <v>238</v>
@@ -7539,33 +8234,33 @@
         <v>9</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I224" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B225" t="s">
         <v>239</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -7580,13 +8275,1637 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I225" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>228</v>
+      </c>
+      <c r="B226" t="s">
+        <v>240</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>1</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>229</v>
+      </c>
+      <c r="B227" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227" t="s">
+        <v>10</v>
+      </c>
+      <c r="I227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>230</v>
+      </c>
+      <c r="B228" t="s">
+        <v>242</v>
+      </c>
+      <c r="C228" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>231</v>
+      </c>
+      <c r="B229" t="s">
+        <v>243</v>
+      </c>
+      <c r="C229" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>232</v>
+      </c>
+      <c r="B230" t="s">
+        <v>244</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>233</v>
+      </c>
+      <c r="B231" t="s">
+        <v>245</v>
+      </c>
+      <c r="C231" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>1</v>
+      </c>
+      <c r="H231" t="s">
+        <v>10</v>
+      </c>
+      <c r="I231" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>234</v>
+      </c>
+      <c r="B232" t="s">
+        <v>246</v>
+      </c>
+      <c r="C232" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>1</v>
+      </c>
+      <c r="H232" t="s">
+        <v>10</v>
+      </c>
+      <c r="I232" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>235</v>
+      </c>
+      <c r="B233" t="s">
+        <v>247</v>
+      </c>
+      <c r="C233" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>236</v>
+      </c>
+      <c r="B234" t="s">
+        <v>248</v>
+      </c>
+      <c r="C234" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>237</v>
+      </c>
+      <c r="B235" t="s">
+        <v>249</v>
+      </c>
+      <c r="C235" t="s">
+        <v>44</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235" t="s">
+        <v>10</v>
+      </c>
+      <c r="I235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>238</v>
+      </c>
+      <c r="B236" t="s">
+        <v>250</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>239</v>
+      </c>
+      <c r="B237" t="s">
+        <v>251</v>
+      </c>
+      <c r="C237" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237" t="s">
+        <v>10</v>
+      </c>
+      <c r="I237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>240</v>
+      </c>
+      <c r="B238" t="s">
+        <v>252</v>
+      </c>
+      <c r="C238" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238" t="s">
+        <v>14</v>
+      </c>
+      <c r="I238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>241</v>
+      </c>
+      <c r="B239" t="s">
+        <v>253</v>
+      </c>
+      <c r="C239" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="H239" t="s">
+        <v>10</v>
+      </c>
+      <c r="I239" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>242</v>
+      </c>
+      <c r="B240" t="s">
+        <v>254</v>
+      </c>
+      <c r="C240" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240" t="s">
+        <v>10</v>
+      </c>
+      <c r="I240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>243</v>
+      </c>
+      <c r="B241" t="s">
+        <v>255</v>
+      </c>
+      <c r="C241" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="H241" t="s">
+        <v>10</v>
+      </c>
+      <c r="I241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>244</v>
+      </c>
+      <c r="B242" t="s">
+        <v>256</v>
+      </c>
+      <c r="C242" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242" t="s">
+        <v>10</v>
+      </c>
+      <c r="I242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>245</v>
+      </c>
+      <c r="B243" t="s">
+        <v>257</v>
+      </c>
+      <c r="C243" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243" t="s">
+        <v>14</v>
+      </c>
+      <c r="I243" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>246</v>
+      </c>
+      <c r="B244" t="s">
+        <v>258</v>
+      </c>
+      <c r="C244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244" t="s">
+        <v>14</v>
+      </c>
+      <c r="I244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>247</v>
+      </c>
+      <c r="B245" t="s">
+        <v>259</v>
+      </c>
+      <c r="C245" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+      <c r="H245" t="s">
+        <v>10</v>
+      </c>
+      <c r="I245" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>248</v>
+      </c>
+      <c r="B246" t="s">
+        <v>260</v>
+      </c>
+      <c r="C246" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246" t="s">
+        <v>14</v>
+      </c>
+      <c r="I246" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>249</v>
+      </c>
+      <c r="B247" t="s">
+        <v>261</v>
+      </c>
+      <c r="C247" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
+      </c>
+      <c r="I247" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>250</v>
+      </c>
+      <c r="B248" t="s">
+        <v>262</v>
+      </c>
+      <c r="C248" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248" t="s">
+        <v>10</v>
+      </c>
+      <c r="I248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>251</v>
+      </c>
+      <c r="B249" t="s">
+        <v>263</v>
+      </c>
+      <c r="C249" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249" t="s">
+        <v>15</v>
+      </c>
+      <c r="I249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>252</v>
+      </c>
+      <c r="B250" t="s">
+        <v>264</v>
+      </c>
+      <c r="C250" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>253</v>
+      </c>
+      <c r="B251" t="s">
+        <v>265</v>
+      </c>
+      <c r="C251" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>254</v>
+      </c>
+      <c r="B252" t="s">
+        <v>266</v>
+      </c>
+      <c r="C252" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>255</v>
+      </c>
+      <c r="B253" t="s">
+        <v>267</v>
+      </c>
+      <c r="C253" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>256</v>
+      </c>
+      <c r="B254" t="s">
+        <v>268</v>
+      </c>
+      <c r="C254" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254" t="s">
+        <v>14</v>
+      </c>
+      <c r="I254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>257</v>
+      </c>
+      <c r="B255" t="s">
+        <v>269</v>
+      </c>
+      <c r="C255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="H255" t="s">
+        <v>14</v>
+      </c>
+      <c r="I255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>258</v>
+      </c>
+      <c r="B256" t="s">
+        <v>270</v>
+      </c>
+      <c r="C256" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
+      </c>
+      <c r="I256" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>259</v>
+      </c>
+      <c r="B257" t="s">
+        <v>271</v>
+      </c>
+      <c r="C257" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>10</v>
+      </c>
+      <c r="I257" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>260</v>
+      </c>
+      <c r="B258" t="s">
+        <v>272</v>
+      </c>
+      <c r="C258" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>1</v>
+      </c>
+      <c r="H258" t="s">
+        <v>14</v>
+      </c>
+      <c r="I258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>261</v>
+      </c>
+      <c r="B259" t="s">
+        <v>273</v>
+      </c>
+      <c r="C259" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259" t="s">
+        <v>14</v>
+      </c>
+      <c r="I259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>262</v>
+      </c>
+      <c r="B260" t="s">
+        <v>274</v>
+      </c>
+      <c r="C260" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260" t="s">
+        <v>15</v>
+      </c>
+      <c r="I260" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>263</v>
+      </c>
+      <c r="B261" t="s">
+        <v>275</v>
+      </c>
+      <c r="C261" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
+      </c>
+      <c r="I261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>264</v>
+      </c>
+      <c r="B262" t="s">
+        <v>276</v>
+      </c>
+      <c r="C262" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262" t="s">
+        <v>10</v>
+      </c>
+      <c r="I262" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>265</v>
+      </c>
+      <c r="B263" t="s">
+        <v>277</v>
+      </c>
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>266</v>
+      </c>
+      <c r="B264" t="s">
+        <v>278</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
+      </c>
+      <c r="I264" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>267</v>
+      </c>
+      <c r="B265" t="s">
+        <v>279</v>
+      </c>
+      <c r="C265" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>14</v>
+      </c>
+      <c r="I265" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>268</v>
+      </c>
+      <c r="B266" t="s">
+        <v>280</v>
+      </c>
+      <c r="C266" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266" t="s">
+        <v>14</v>
+      </c>
+      <c r="I266" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>269</v>
+      </c>
+      <c r="B267" t="s">
+        <v>281</v>
+      </c>
+      <c r="C267" t="s">
+        <v>9</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267" t="s">
+        <v>14</v>
+      </c>
+      <c r="I267" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>270</v>
+      </c>
+      <c r="B268" t="s">
+        <v>282</v>
+      </c>
+      <c r="C268" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268" t="s">
+        <v>10</v>
+      </c>
+      <c r="I268" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>271</v>
+      </c>
+      <c r="B269" t="s">
+        <v>283</v>
+      </c>
+      <c r="C269" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269" t="s">
+        <v>10</v>
+      </c>
+      <c r="I269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>272</v>
+      </c>
+      <c r="B270" t="s">
+        <v>284</v>
+      </c>
+      <c r="C270" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270" t="s">
+        <v>15</v>
+      </c>
+      <c r="I270" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>273</v>
+      </c>
+      <c r="B271" t="s">
+        <v>285</v>
+      </c>
+      <c r="C271" t="s">
+        <v>20</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271" t="s">
+        <v>14</v>
+      </c>
+      <c r="I271" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>274</v>
+      </c>
+      <c r="B272" t="s">
+        <v>286</v>
+      </c>
+      <c r="C272" t="s">
+        <v>9</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272" t="s">
+        <v>14</v>
+      </c>
+      <c r="I272" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>275</v>
+      </c>
+      <c r="B273" t="s">
+        <v>287</v>
+      </c>
+      <c r="C273" t="s">
+        <v>9</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273" t="s">
+        <v>14</v>
+      </c>
+      <c r="I273" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>276</v>
+      </c>
+      <c r="B274" t="s">
+        <v>288</v>
+      </c>
+      <c r="C274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>277</v>
+      </c>
+      <c r="B275" t="s">
+        <v>289</v>
+      </c>
+      <c r="C275" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275" t="s">
+        <v>10</v>
+      </c>
+      <c r="I275" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>278</v>
+      </c>
+      <c r="B276" t="s">
+        <v>290</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276" t="s">
+        <v>14</v>
+      </c>
+      <c r="I276" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>279</v>
+      </c>
+      <c r="B277" t="s">
+        <v>291</v>
+      </c>
+      <c r="C277" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277" t="s">
+        <v>14</v>
+      </c>
+      <c r="I277" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>280</v>
+      </c>
+      <c r="B278" t="s">
+        <v>292</v>
+      </c>
+      <c r="C278" t="s">
+        <v>9</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278" t="s">
+        <v>14</v>
+      </c>
+      <c r="I278" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>281</v>
+      </c>
+      <c r="B279" t="s">
+        <v>293</v>
+      </c>
+      <c r="C279" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279" t="s">
+        <v>14</v>
+      </c>
+      <c r="I279" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>282</v>
+      </c>
+      <c r="B280" t="s">
+        <v>294</v>
+      </c>
+      <c r="C280" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280" t="s">
+        <v>14</v>
+      </c>
+      <c r="I280" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>283</v>
+      </c>
+      <c r="B281" t="s">
+        <v>295</v>
+      </c>
+      <c r="C281" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+      <c r="I281" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>